--- a/data/zenodo/conversion/chp/CHE_convchp_fueloil.xlsx
+++ b/data/zenodo/conversion/chp/CHE_convchp_fueloil.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA984BF-2294-3942-B840-60DCDE91C03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2AF221-9890-314A-AD9F-AFC9EF2D2A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$853</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="76">
   <si>
     <t>Name:</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Maximum energy production per capacity unit, per year.</t>
+  </si>
+  <si>
+    <t>enable_year</t>
   </si>
 </sst>
 </file>
@@ -679,11 +682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L432"/>
+  <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -785,16 +788,13 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -806,13 +806,13 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
         <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -827,16 +827,16 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="G9">
-        <v>0.28000000000000003</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -848,16 +848,16 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G10">
-        <v>0.95</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -869,26 +869,18 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
       </c>
       <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" t="s">
-        <v>48</v>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -898,19 +890,25 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>31.54</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
       </c>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -920,26 +918,20 @@
       <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
+      <c r="C13" t="s">
+        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>278.60000000000002</v>
+        <v>31.54</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -950,18 +942,26 @@
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>8.3000000000000007</v>
+        <v>278.60000000000002</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
       </c>
       <c r="I14" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -971,16 +971,13 @@
         <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="G15">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>52</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I15" t="s">
         <v>46</v>
@@ -995,13 +992,19 @@
         <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -1013,13 +1016,13 @@
         <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -1031,23 +1034,15 @@
         <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="G18">
-        <v>0.88</v>
-      </c>
-      <c r="I18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" t="s">
-        <v>55</v>
-      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1057,22 +1052,22 @@
         <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="G19">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="I19" t="s">
         <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1082,23 +1077,23 @@
       <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G20">
-        <v>386</v>
-      </c>
-      <c r="H20" t="s">
-        <v>58</v>
+        <v>0.6</v>
       </c>
       <c r="I20" t="s">
         <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1115,7 +1110,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1991</v>
+        <v>1990</v>
+      </c>
+      <c r="G21">
+        <v>386</v>
       </c>
       <c r="H21" t="s">
         <v>58</v>
@@ -1138,7 +1136,7 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
@@ -1161,7 +1159,7 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="H23" t="s">
         <v>58</v>
@@ -1184,7 +1182,7 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H24" t="s">
         <v>58</v>
@@ -1207,7 +1205,7 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H25" t="s">
         <v>58</v>
@@ -1230,7 +1228,7 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="H26" t="s">
         <v>58</v>
@@ -1253,7 +1251,7 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H27" t="s">
         <v>58</v>
@@ -1276,7 +1274,7 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="H28" t="s">
         <v>58</v>
@@ -1299,7 +1297,7 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="H29" t="s">
         <v>58</v>
@@ -1322,10 +1320,7 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2000</v>
-      </c>
-      <c r="G30">
-        <v>227</v>
+        <v>1999</v>
       </c>
       <c r="H30" t="s">
         <v>58</v>
@@ -1348,7 +1343,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2001</v>
+        <v>2000</v>
+      </c>
+      <c r="G31">
+        <v>227</v>
       </c>
       <c r="H31" t="s">
         <v>58</v>
@@ -1371,7 +1369,7 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="H32" t="s">
         <v>58</v>
@@ -1394,7 +1392,7 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="H33" t="s">
         <v>58</v>
@@ -1417,7 +1415,7 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H34" t="s">
         <v>58</v>
@@ -1440,10 +1438,7 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2005</v>
-      </c>
-      <c r="G35">
-        <v>214</v>
+        <v>2004</v>
       </c>
       <c r="H35" t="s">
         <v>58</v>
@@ -1466,7 +1461,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2006</v>
+        <v>2005</v>
+      </c>
+      <c r="G36">
+        <v>214</v>
       </c>
       <c r="H36" t="s">
         <v>58</v>
@@ -1489,7 +1487,7 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="H37" t="s">
         <v>58</v>
@@ -1512,7 +1510,7 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="H38" t="s">
         <v>58</v>
@@ -1535,7 +1533,7 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="H39" t="s">
         <v>58</v>
@@ -1558,10 +1556,7 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2010</v>
-      </c>
-      <c r="G40">
-        <v>68</v>
+        <v>2009</v>
       </c>
       <c r="H40" t="s">
         <v>58</v>
@@ -1584,7 +1579,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2011</v>
+        <v>2010</v>
+      </c>
+      <c r="G41">
+        <v>68</v>
       </c>
       <c r="H41" t="s">
         <v>58</v>
@@ -1607,10 +1605,7 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2012</v>
-      </c>
-      <c r="G42">
-        <v>51</v>
+        <v>2011</v>
       </c>
       <c r="H42" t="s">
         <v>58</v>
@@ -1633,10 +1628,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G43">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s">
         <v>58</v>
@@ -1659,10 +1654,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G44">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
         <v>58</v>
@@ -1685,7 +1680,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="G45">
+        <v>42</v>
       </c>
       <c r="H45" t="s">
         <v>58</v>
@@ -1708,7 +1706,7 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H46" t="s">
         <v>58</v>
@@ -1731,7 +1729,7 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H47" t="s">
         <v>58</v>
@@ -1754,7 +1752,7 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H48" t="s">
         <v>58</v>
@@ -1777,7 +1775,7 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H49" t="s">
         <v>58</v>
@@ -1794,25 +1792,19 @@
         <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1990</v>
-      </c>
-      <c r="G50">
-        <v>378</v>
+        <v>2019</v>
       </c>
       <c r="H50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I50" t="s">
         <v>46</v>
-      </c>
-      <c r="J50" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -1829,7 +1821,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G51">
         <v>378</v>
@@ -1858,10 +1850,10 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G52">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H52" t="s">
         <v>59</v>
@@ -1887,7 +1879,7 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G53">
         <v>380</v>
@@ -1916,10 +1908,10 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G54">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H54" t="s">
         <v>59</v>
@@ -1945,10 +1937,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G55">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H55" t="s">
         <v>59</v>
@@ -1974,10 +1966,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G56">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H56" t="s">
         <v>59</v>
@@ -2003,10 +1995,10 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G57">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H57" t="s">
         <v>59</v>
@@ -2032,10 +2024,10 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G58">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H58" t="s">
         <v>59</v>
@@ -2061,10 +2053,10 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G59">
-        <v>114</v>
+        <v>395</v>
       </c>
       <c r="H59" t="s">
         <v>59</v>
@@ -2090,10 +2082,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G60">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H60" t="s">
         <v>59</v>
@@ -2119,10 +2111,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G61">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H61" t="s">
         <v>59</v>
@@ -2148,7 +2140,7 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G62">
         <v>113</v>
@@ -2177,10 +2169,10 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G63">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H63" t="s">
         <v>59</v>
@@ -2206,10 +2198,10 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G64">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H64" t="s">
         <v>59</v>
@@ -2221,7 +2213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -2235,10 +2227,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G65">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H65" t="s">
         <v>59</v>
@@ -2250,7 +2242,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -2264,10 +2256,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G66">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H66" t="s">
         <v>59</v>
@@ -2279,7 +2271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -2293,10 +2285,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G67">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H67" t="s">
         <v>59</v>
@@ -2308,7 +2300,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2322,10 +2314,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G68">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H68" t="s">
         <v>59</v>
@@ -2337,7 +2329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2351,10 +2343,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G69">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H69" t="s">
         <v>59</v>
@@ -2366,7 +2358,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2380,10 +2372,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G70">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H70" t="s">
         <v>59</v>
@@ -2395,7 +2387,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -2409,10 +2401,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G71">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s">
         <v>59</v>
@@ -2424,7 +2416,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -2438,7 +2430,7 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G72">
         <v>87</v>
@@ -2453,7 +2445,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -2467,7 +2459,7 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G73">
         <v>87</v>
@@ -2482,7 +2474,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -2496,7 +2488,7 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G74">
         <v>87</v>
@@ -2511,7 +2503,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -2525,7 +2517,7 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G75">
         <v>87</v>
@@ -2540,7 +2532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -2554,7 +2546,7 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G76">
         <v>87</v>
@@ -2569,7 +2561,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2583,10 +2575,10 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G77">
-        <v>82.515000000000001</v>
+        <v>87</v>
       </c>
       <c r="H77" t="s">
         <v>59</v>
@@ -2598,7 +2590,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2612,10 +2604,10 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G78">
-        <v>82.302999999999997</v>
+        <v>82.515000000000001</v>
       </c>
       <c r="H78" t="s">
         <v>59</v>
@@ -2627,7 +2619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2641,7 +2633,7 @@
         <v>39</v>
       </c>
       <c r="E79">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G79">
         <v>82.302999999999997</v>
@@ -2656,7 +2648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -2664,16 +2656,16 @@
         <v>42</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>82.302999999999997</v>
       </c>
       <c r="H80" t="s">
         <v>59</v>
@@ -2683,9 +2675,6 @@
       </c>
       <c r="J80" t="s">
         <v>60</v>
-      </c>
-      <c r="L80" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -2702,7 +2691,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2734,10 +2723,10 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82" t="s">
         <v>59</v>
@@ -2766,10 +2755,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H83" t="s">
         <v>59</v>
@@ -2798,10 +2787,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="s">
         <v>59</v>
@@ -2830,10 +2819,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" t="s">
         <v>59</v>
@@ -2862,10 +2851,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
         <v>59</v>
@@ -2894,10 +2883,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H87" t="s">
         <v>59</v>
@@ -2926,10 +2915,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H88" t="s">
         <v>59</v>
@@ -2958,10 +2947,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H89" t="s">
         <v>59</v>
@@ -2990,7 +2979,7 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3022,10 +3011,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
         <v>59</v>
@@ -3054,10 +3043,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>59</v>
@@ -3086,7 +3075,7 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3118,7 +3107,7 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3150,7 +3139,7 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3182,7 +3171,7 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3214,7 +3203,7 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3246,7 +3235,7 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3278,7 +3267,7 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3310,7 +3299,7 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3342,7 +3331,7 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3374,7 +3363,7 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3406,7 +3395,7 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3438,7 +3427,7 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3470,7 +3459,7 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3502,7 +3491,7 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3534,7 +3523,7 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3566,7 +3555,7 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3598,7 +3587,7 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3624,13 +3613,13 @@
         <v>42</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3662,7 +3651,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3694,7 +3683,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3726,7 +3715,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3758,7 +3747,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3790,7 +3779,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3822,7 +3811,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3854,7 +3843,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3886,7 +3875,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3918,10 +3907,10 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G119">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="H119" t="s">
         <v>59</v>
@@ -3950,10 +3939,10 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>281</v>
       </c>
       <c r="H120" t="s">
         <v>59</v>
@@ -3982,10 +3971,10 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H121" t="s">
         <v>59</v>
@@ -4014,7 +4003,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4046,10 +4035,10 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123" t="s">
         <v>59</v>
@@ -4078,7 +4067,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -4110,10 +4099,10 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H125" t="s">
         <v>59</v>
@@ -4142,10 +4131,10 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H126" t="s">
         <v>59</v>
@@ -4174,10 +4163,10 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H127" t="s">
         <v>59</v>
@@ -4206,10 +4195,10 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G128">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H128" t="s">
         <v>59</v>
@@ -4238,10 +4227,10 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G129">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H129" t="s">
         <v>59</v>
@@ -4270,10 +4259,10 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G130">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H130" t="s">
         <v>59</v>
@@ -4302,10 +4291,10 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H131" t="s">
         <v>59</v>
@@ -4334,10 +4323,10 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="s">
         <v>59</v>
@@ -4366,7 +4355,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4398,7 +4387,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4430,7 +4419,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4462,7 +4451,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4494,10 +4483,10 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G137">
-        <v>4.4850000000000003</v>
+        <v>0</v>
       </c>
       <c r="H137" t="s">
         <v>59</v>
@@ -4526,10 +4515,10 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G138">
-        <v>0.21199999999999999</v>
+        <v>4.4850000000000003</v>
       </c>
       <c r="H138" t="s">
         <v>59</v>
@@ -4558,10 +4547,10 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="H139" t="s">
         <v>59</v>
@@ -4584,16 +4573,28 @@
         <v>42</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s">
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>59</v>
       </c>
       <c r="I140" t="s">
         <v>46</v>
+      </c>
+      <c r="J140" t="s">
+        <v>60</v>
+      </c>
+      <c r="L140" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -4610,7 +4611,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I141" t="s">
         <v>46</v>
@@ -4630,7 +4631,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I142" t="s">
         <v>46</v>
@@ -4650,7 +4651,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I143" t="s">
         <v>46</v>
@@ -4670,7 +4671,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I144" t="s">
         <v>46</v>
@@ -4690,7 +4691,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I145" t="s">
         <v>46</v>
@@ -4710,7 +4711,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I146" t="s">
         <v>46</v>
@@ -4730,7 +4731,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I147" t="s">
         <v>46</v>
@@ -4750,7 +4751,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I148" t="s">
         <v>46</v>
@@ -4770,7 +4771,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I149" t="s">
         <v>46</v>
@@ -4790,7 +4791,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I150" t="s">
         <v>46</v>
@@ -4810,7 +4811,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I151" t="s">
         <v>46</v>
@@ -4830,7 +4831,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I152" t="s">
         <v>46</v>
@@ -4850,7 +4851,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I153" t="s">
         <v>46</v>
@@ -4870,7 +4871,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I154" t="s">
         <v>46</v>
@@ -4890,7 +4891,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I155" t="s">
         <v>46</v>
@@ -4910,7 +4911,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I156" t="s">
         <v>46</v>
@@ -4930,7 +4931,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I157" t="s">
         <v>46</v>
@@ -4950,7 +4951,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I158" t="s">
         <v>46</v>
@@ -4970,7 +4971,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I159" t="s">
         <v>46</v>
@@ -4990,7 +4991,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I160" t="s">
         <v>46</v>
@@ -5010,7 +5011,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I161" t="s">
         <v>46</v>
@@ -5030,7 +5031,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I162" t="s">
         <v>46</v>
@@ -5050,7 +5051,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I163" t="s">
         <v>46</v>
@@ -5070,7 +5071,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I164" t="s">
         <v>46</v>
@@ -5090,7 +5091,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I165" t="s">
         <v>46</v>
@@ -5110,7 +5111,7 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I166" t="s">
         <v>46</v>
@@ -5130,7 +5131,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I167" t="s">
         <v>46</v>
@@ -5150,22 +5151,10 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>2018</v>
-      </c>
-      <c r="G168">
-        <v>13</v>
-      </c>
-      <c r="H168" t="s">
-        <v>62</v>
+        <v>2017</v>
       </c>
       <c r="I168" t="s">
         <v>46</v>
-      </c>
-      <c r="J168" t="s">
-        <v>63</v>
-      </c>
-      <c r="L168" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -5182,10 +5171,22 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G169">
+        <v>13</v>
+      </c>
+      <c r="H169" t="s">
+        <v>62</v>
       </c>
       <c r="I169" t="s">
         <v>46</v>
+      </c>
+      <c r="J169" t="s">
+        <v>63</v>
+      </c>
+      <c r="L169" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -5196,13 +5197,13 @@
         <v>42</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I170" t="s">
         <v>46</v>
@@ -5222,7 +5223,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I171" t="s">
         <v>46</v>
@@ -5242,7 +5243,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I172" t="s">
         <v>46</v>
@@ -5262,7 +5263,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I173" t="s">
         <v>46</v>
@@ -5282,7 +5283,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I174" t="s">
         <v>46</v>
@@ -5302,7 +5303,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I175" t="s">
         <v>46</v>
@@ -5322,7 +5323,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I176" t="s">
         <v>46</v>
@@ -5342,7 +5343,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I177" t="s">
         <v>46</v>
@@ -5362,7 +5363,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I178" t="s">
         <v>46</v>
@@ -5382,7 +5383,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I179" t="s">
         <v>46</v>
@@ -5402,7 +5403,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I180" t="s">
         <v>46</v>
@@ -5422,7 +5423,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I181" t="s">
         <v>46</v>
@@ -5442,7 +5443,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I182" t="s">
         <v>46</v>
@@ -5462,7 +5463,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I183" t="s">
         <v>46</v>
@@ -5482,7 +5483,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I184" t="s">
         <v>46</v>
@@ -5502,7 +5503,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I185" t="s">
         <v>46</v>
@@ -5522,7 +5523,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I186" t="s">
         <v>46</v>
@@ -5542,7 +5543,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I187" t="s">
         <v>46</v>
@@ -5562,7 +5563,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I188" t="s">
         <v>46</v>
@@ -5582,7 +5583,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I189" t="s">
         <v>46</v>
@@ -5602,7 +5603,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I190" t="s">
         <v>46</v>
@@ -5622,7 +5623,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I191" t="s">
         <v>46</v>
@@ -5642,7 +5643,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I192" t="s">
         <v>46</v>
@@ -5662,7 +5663,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I193" t="s">
         <v>46</v>
@@ -5682,7 +5683,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I194" t="s">
         <v>46</v>
@@ -5702,7 +5703,7 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I195" t="s">
         <v>46</v>
@@ -5722,7 +5723,7 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I196" t="s">
         <v>46</v>
@@ -5742,7 +5743,7 @@
         <v>39</v>
       </c>
       <c r="E197">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I197" t="s">
         <v>46</v>
@@ -5762,22 +5763,10 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>2018</v>
-      </c>
-      <c r="G198">
-        <v>610</v>
-      </c>
-      <c r="H198" t="s">
-        <v>62</v>
+        <v>2017</v>
       </c>
       <c r="I198" t="s">
         <v>46</v>
-      </c>
-      <c r="J198" t="s">
-        <v>63</v>
-      </c>
-      <c r="L198" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -5794,10 +5783,22 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G199">
+        <v>610</v>
+      </c>
+      <c r="H199" t="s">
+        <v>62</v>
       </c>
       <c r="I199" t="s">
         <v>46</v>
+      </c>
+      <c r="J199" t="s">
+        <v>63</v>
+      </c>
+      <c r="L199" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -5808,13 +5809,13 @@
         <v>42</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I200" t="s">
         <v>46</v>
@@ -5834,7 +5835,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I201" t="s">
         <v>46</v>
@@ -5854,7 +5855,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I202" t="s">
         <v>46</v>
@@ -5874,7 +5875,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I203" t="s">
         <v>46</v>
@@ -5894,7 +5895,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I204" t="s">
         <v>46</v>
@@ -5914,7 +5915,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I205" t="s">
         <v>46</v>
@@ -5934,7 +5935,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I206" t="s">
         <v>46</v>
@@ -5954,7 +5955,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I207" t="s">
         <v>46</v>
@@ -5974,7 +5975,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I208" t="s">
         <v>46</v>
@@ -5994,7 +5995,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I209" t="s">
         <v>46</v>
@@ -6014,7 +6015,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I210" t="s">
         <v>46</v>
@@ -6034,7 +6035,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I211" t="s">
         <v>46</v>
@@ -6054,7 +6055,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I212" t="s">
         <v>46</v>
@@ -6074,7 +6075,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I213" t="s">
         <v>46</v>
@@ -6094,7 +6095,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I214" t="s">
         <v>46</v>
@@ -6114,7 +6115,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I215" t="s">
         <v>46</v>
@@ -6134,7 +6135,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I216" t="s">
         <v>46</v>
@@ -6154,7 +6155,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I217" t="s">
         <v>46</v>
@@ -6174,7 +6175,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I218" t="s">
         <v>46</v>
@@ -6194,7 +6195,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I219" t="s">
         <v>46</v>
@@ -6214,7 +6215,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I220" t="s">
         <v>46</v>
@@ -6234,7 +6235,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I221" t="s">
         <v>46</v>
@@ -6254,7 +6255,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I222" t="s">
         <v>46</v>
@@ -6274,7 +6275,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I223" t="s">
         <v>46</v>
@@ -6294,7 +6295,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I224" t="s">
         <v>46</v>
@@ -6314,7 +6315,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I225" t="s">
         <v>46</v>
@@ -6334,7 +6335,7 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I226" t="s">
         <v>46</v>
@@ -6354,7 +6355,7 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I227" t="s">
         <v>46</v>
@@ -6374,22 +6375,10 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>2018</v>
-      </c>
-      <c r="G228">
-        <v>12.1</v>
-      </c>
-      <c r="H228" t="s">
-        <v>65</v>
+        <v>2017</v>
       </c>
       <c r="I228" t="s">
         <v>46</v>
-      </c>
-      <c r="J228" t="s">
-        <v>63</v>
-      </c>
-      <c r="L228" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6406,10 +6395,22 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G229">
+        <v>12.1</v>
+      </c>
+      <c r="H229" t="s">
+        <v>65</v>
       </c>
       <c r="I229" t="s">
         <v>46</v>
+      </c>
+      <c r="J229" t="s">
+        <v>63</v>
+      </c>
+      <c r="L229" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -6420,28 +6421,16 @@
         <v>42</v>
       </c>
       <c r="C230" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D230" t="s">
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1990</v>
-      </c>
-      <c r="G230">
-        <v>0</v>
-      </c>
-      <c r="H230" t="s">
-        <v>59</v>
+        <v>2019</v>
       </c>
       <c r="I230" t="s">
         <v>46</v>
-      </c>
-      <c r="J230" t="s">
-        <v>60</v>
-      </c>
-      <c r="L230" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -6458,7 +6447,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6490,7 +6479,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6522,7 +6511,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6554,7 +6543,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6586,7 +6575,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6618,7 +6607,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6650,7 +6639,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6682,7 +6671,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -6714,10 +6703,10 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G239">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="H239" t="s">
         <v>59</v>
@@ -6746,10 +6735,10 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G240">
-        <v>2</v>
+        <v>281</v>
       </c>
       <c r="H240" t="s">
         <v>59</v>
@@ -6778,10 +6767,10 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H241" t="s">
         <v>59</v>
@@ -6810,7 +6799,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -6842,10 +6831,10 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243" t="s">
         <v>59</v>
@@ -6874,7 +6863,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -6906,10 +6895,10 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H245" t="s">
         <v>59</v>
@@ -6938,10 +6927,10 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G246">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H246" t="s">
         <v>59</v>
@@ -6970,10 +6959,10 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G247">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H247" t="s">
         <v>59</v>
@@ -7002,10 +6991,10 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G248">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H248" t="s">
         <v>59</v>
@@ -7034,10 +7023,10 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G249">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H249" t="s">
         <v>59</v>
@@ -7066,10 +7055,10 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G250">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H250" t="s">
         <v>59</v>
@@ -7098,10 +7087,10 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G251">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H251" t="s">
         <v>59</v>
@@ -7130,10 +7119,10 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252" t="s">
         <v>59</v>
@@ -7162,7 +7151,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7194,7 +7183,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7226,7 +7215,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7258,7 +7247,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7290,10 +7279,10 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G257">
-        <v>4.4850000000000003</v>
+        <v>0</v>
       </c>
       <c r="H257" t="s">
         <v>59</v>
@@ -7322,10 +7311,10 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G258">
-        <v>0.21199999999999999</v>
+        <v>4.4850000000000003</v>
       </c>
       <c r="H258" t="s">
         <v>59</v>
@@ -7354,10 +7343,10 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G259">
-        <v>0</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="H259" t="s">
         <v>59</v>
@@ -7380,22 +7369,28 @@
         <v>42</v>
       </c>
       <c r="C260" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D260" t="s">
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G260">
-        <v>1.1000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="H260" t="s">
+        <v>59</v>
       </c>
       <c r="I260" t="s">
         <v>46</v>
       </c>
       <c r="J260" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="L260" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7412,13 +7407,16 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G261">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I261" t="s">
         <v>46</v>
+      </c>
+      <c r="J261" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -7435,7 +7433,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G262">
         <v>0.85</v>
@@ -7458,7 +7456,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G263">
         <v>0.85</v>
@@ -7481,7 +7479,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G264">
         <v>0.85</v>
@@ -7504,7 +7502,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G265">
         <v>0.85</v>
@@ -7527,7 +7525,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G266">
         <v>0.85</v>
@@ -7550,7 +7548,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G267">
         <v>0.85</v>
@@ -7573,7 +7571,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G268">
         <v>0.85</v>
@@ -7596,7 +7594,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G269">
         <v>0.85</v>
@@ -7619,7 +7617,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G270">
         <v>0.85</v>
@@ -7642,7 +7640,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G271">
         <v>0.85</v>
@@ -7665,7 +7663,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G272">
         <v>0.85</v>
@@ -7688,7 +7686,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G273">
         <v>0.85</v>
@@ -7711,7 +7709,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G274">
         <v>0.85</v>
@@ -7734,7 +7732,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G275">
         <v>0.85</v>
@@ -7757,7 +7755,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G276">
         <v>0.85</v>
@@ -7780,7 +7778,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G277">
         <v>0.85</v>
@@ -7803,7 +7801,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G278">
         <v>0.85</v>
@@ -7826,7 +7824,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G279">
         <v>0.85</v>
@@ -7849,7 +7847,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G280">
         <v>0.85</v>
@@ -7872,7 +7870,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G281">
         <v>0.85</v>
@@ -7895,7 +7893,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G282">
         <v>0.85</v>
@@ -7918,7 +7916,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G283">
         <v>0.85</v>
@@ -7941,7 +7939,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G284">
         <v>0.85</v>
@@ -7964,7 +7962,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G285">
         <v>0.85</v>
@@ -7987,7 +7985,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G286">
         <v>0.85</v>
@@ -8010,7 +8008,7 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G287">
         <v>0.85</v>
@@ -8033,7 +8031,7 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G288">
         <v>0.85</v>
@@ -8056,7 +8054,7 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G289">
         <v>0.85</v>
@@ -8073,22 +8071,19 @@
         <v>42</v>
       </c>
       <c r="C290" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D290" t="s">
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I290" t="s">
         <v>46</v>
-      </c>
-      <c r="J290" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
@@ -8105,13 +8100,16 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G291">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I291" t="s">
         <v>46</v>
+      </c>
+      <c r="J291" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
@@ -8128,7 +8126,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G292">
         <v>0.02</v>
@@ -8151,7 +8149,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G293">
         <v>0.02</v>
@@ -8174,7 +8172,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G294">
         <v>0.02</v>
@@ -8197,7 +8195,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G295">
         <v>0.02</v>
@@ -8220,7 +8218,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G296">
         <v>0.02</v>
@@ -8243,7 +8241,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G297">
         <v>0.02</v>
@@ -8266,7 +8264,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G298">
         <v>0.02</v>
@@ -8289,7 +8287,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G299">
         <v>0.02</v>
@@ -8312,7 +8310,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G300">
         <v>0.02</v>
@@ -8335,7 +8333,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G301">
         <v>0.02</v>
@@ -8358,7 +8356,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G302">
         <v>0.02</v>
@@ -8381,7 +8379,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G303">
         <v>0.02</v>
@@ -8404,7 +8402,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G304">
         <v>0.02</v>
@@ -8427,7 +8425,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G305">
         <v>0.02</v>
@@ -8450,7 +8448,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G306">
         <v>0.02</v>
@@ -8473,7 +8471,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G307">
         <v>0.02</v>
@@ -8496,7 +8494,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G308">
         <v>0.02</v>
@@ -8519,7 +8517,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G309">
         <v>0.02</v>
@@ -8542,7 +8540,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G310">
         <v>0.02</v>
@@ -8565,7 +8563,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G311">
         <v>0.02</v>
@@ -8588,7 +8586,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G312">
         <v>0.02</v>
@@ -8611,7 +8609,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G313">
         <v>0.02</v>
@@ -8634,7 +8632,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G314">
         <v>0.02</v>
@@ -8657,7 +8655,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G315">
         <v>0.02</v>
@@ -8680,7 +8678,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G316">
         <v>0.02</v>
@@ -8703,7 +8701,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G317">
         <v>0.02</v>
@@ -8726,7 +8724,7 @@
         <v>39</v>
       </c>
       <c r="E318">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G318">
         <v>0.02</v>
@@ -8749,7 +8747,7 @@
         <v>39</v>
       </c>
       <c r="E319">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G319">
         <v>0.02</v>
@@ -8758,11 +8756,34 @@
         <v>46</v>
       </c>
     </row>
-    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K432" s="2"/>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>16</v>
+      </c>
+      <c r="B320" t="s">
+        <v>42</v>
+      </c>
+      <c r="C320" t="s">
+        <v>29</v>
+      </c>
+      <c r="D320" t="s">
+        <v>39</v>
+      </c>
+      <c r="E320">
+        <v>2019</v>
+      </c>
+      <c r="G320">
+        <v>0.02</v>
+      </c>
+      <c r="I320" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="433" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K433" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L853" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo/conversion/chp/CHE_convchp_fueloil.xlsx
+++ b/data/zenodo/conversion/chp/CHE_convchp_fueloil.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2AF221-9890-314A-AD9F-AFC9EF2D2A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D55CE0F-8555-2E4B-BFD2-82701BAE9CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,9 +362,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -402,9 +402,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,26 +437,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,26 +472,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -685,8 +651,8 @@
   <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="5" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G262" sqref="G261:G262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7410,7 +7376,7 @@
         <v>1990</v>
       </c>
       <c r="G261">
-        <v>1.1000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="I261" t="s">
         <v>46</v>
@@ -8103,7 +8069,7 @@
         <v>1990</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I291" t="s">
         <v>46</v>
